--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
